--- a/tests/artifact/script/Godown.xlsx
+++ b/tests/artifact/script/Godown.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="837">
   <si>
     <t>target</t>
   </si>
@@ -2333,16 +2333,13 @@
     <t>${org.hamburger}</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>click on workflow</t>
   </si>
   <si>
     <t>${org.Inventory}</t>
   </si>
   <si>
-    <t>Click on Contacts</t>
+    <t>Click on godowns option from Inventory</t>
   </si>
   <si>
     <t>${click.Godowns}</t>
@@ -2366,6 +2363,9 @@
     <t>${label.creategodown}</t>
   </si>
   <si>
+    <t>Validate Godowns Label Names</t>
+  </si>
+  <si>
     <t>${lable.name}</t>
   </si>
   <si>
@@ -2387,7 +2387,7 @@
     <t>${label.concactnumber}</t>
   </si>
   <si>
-    <t>Validate Godowns Add button is present</t>
+    <t>Validate Godowns Address button is present</t>
   </si>
   <si>
     <t>${label.address}</t>
@@ -6607,7 +6607,7 @@
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -9594,8 +9594,8 @@
   <sheetPr/>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -9772,8 +9772,8 @@
       <c r="E6" s="30" t="s">
         <v>755</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>756</v>
+      <c r="F6" s="31">
+        <v>1000</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -9788,18 +9788,20 @@
     <row r="7" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A7" s="28"/>
       <c r="B7" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>363</v>
+        <v>576</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="F7" s="30"/>
+        <v>757</v>
+      </c>
+      <c r="F7" s="31">
+        <v>1000</v>
+      </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -9813,7 +9815,7 @@
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="28"/>
       <c r="B8" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>30</v>
@@ -9822,9 +9824,9 @@
         <v>363</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="F8" s="30"/>
+        <v>759</v>
+      </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -9837,10 +9839,10 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>761</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>762</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>30</v>
@@ -9849,7 +9851,7 @@
         <v>576</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F9" s="34">
         <v>1000</v>
@@ -9866,10 +9868,10 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>764</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>765</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>30</v>
@@ -9878,7 +9880,7 @@
         <v>253</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="30"/>
@@ -9894,7 +9896,7 @@
     <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="22"/>
       <c r="B11" s="23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>30</v>
@@ -10753,7 +10755,7 @@
         <v>830</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>30</v>
@@ -10762,7 +10764,7 @@
         <v>576</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F44" s="34">
         <v>1000</v>
